--- a/Ressources/Planning.xlsx
+++ b/Ressources/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic.jurasz\Desktop\He-arc\3eme_annee\TB\intranetcinepel\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C2B605-EAA2-4717-B7D0-845E0B54C17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695EA36F-01EF-47DE-A919-C618FAE5E5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2624,6 +2624,24 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2631,27 +2649,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2703,7 +2703,501 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="27" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="54">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2779,16 +3273,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3017,7 +3501,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3556,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3401,7 +3885,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3429,29 +3913,29 @@
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
       <c r="I1" s="95"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
@@ -3496,11 +3980,11 @@
       <c r="B4" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="131">
+      <c r="C4" s="134">
         <v>43879</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="77"/>
       <c r="G4" s="80" t="s">
         <v>42</v>
@@ -3510,182 +3994,182 @@
       </c>
       <c r="I4" s="78"/>
       <c r="J4" s="40"/>
-      <c r="K4" s="128" t="str">
+      <c r="K4" s="126" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="128" t="str">
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="126" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="128" t="str">
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="126" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="128" t="str">
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="126" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="128" t="str">
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="126" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="128" t="str">
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="126" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="128" t="str">
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="126" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="129"/>
-      <c r="BE4" s="129"/>
-      <c r="BF4" s="129"/>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="128" t="str">
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="126" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="129"/>
-      <c r="BM4" s="129"/>
-      <c r="BN4" s="130"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
+      <c r="BN4" s="128"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
       <c r="B5" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
       <c r="J5" s="40"/>
-      <c r="K5" s="132">
+      <c r="K5" s="129">
         <f>K6</f>
         <v>43878</v>
       </c>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="132">
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="129">
         <f>R6</f>
         <v>43885</v>
       </c>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="132">
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="129">
         <f>Y6</f>
         <v>43892</v>
       </c>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="132">
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="129">
         <f>AF6</f>
         <v>43899</v>
       </c>
-      <c r="AG5" s="133"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="133"/>
-      <c r="AJ5" s="133"/>
-      <c r="AK5" s="133"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="132">
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="131"/>
+      <c r="AM5" s="129">
         <f>AM6</f>
         <v>43906</v>
       </c>
-      <c r="AN5" s="133"/>
-      <c r="AO5" s="133"/>
-      <c r="AP5" s="133"/>
-      <c r="AQ5" s="133"/>
-      <c r="AR5" s="133"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="132">
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="129">
         <f>AT6</f>
         <v>43913</v>
       </c>
-      <c r="AU5" s="133"/>
-      <c r="AV5" s="133"/>
-      <c r="AW5" s="133"/>
-      <c r="AX5" s="133"/>
-      <c r="AY5" s="133"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="132">
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="130"/>
+      <c r="AW5" s="130"/>
+      <c r="AX5" s="130"/>
+      <c r="AY5" s="130"/>
+      <c r="AZ5" s="131"/>
+      <c r="BA5" s="129">
         <f>BA6</f>
         <v>43920</v>
       </c>
-      <c r="BB5" s="133"/>
-      <c r="BC5" s="133"/>
-      <c r="BD5" s="133"/>
-      <c r="BE5" s="133"/>
-      <c r="BF5" s="133"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="132">
+      <c r="BB5" s="130"/>
+      <c r="BC5" s="130"/>
+      <c r="BD5" s="130"/>
+      <c r="BE5" s="130"/>
+      <c r="BF5" s="130"/>
+      <c r="BG5" s="131"/>
+      <c r="BH5" s="129">
         <f>BH6</f>
         <v>43927</v>
       </c>
-      <c r="BI5" s="133"/>
-      <c r="BJ5" s="133"/>
-      <c r="BK5" s="133"/>
-      <c r="BL5" s="133"/>
-      <c r="BM5" s="133"/>
-      <c r="BN5" s="134"/>
+      <c r="BI5" s="130"/>
+      <c r="BJ5" s="130"/>
+      <c r="BK5" s="130"/>
+      <c r="BL5" s="130"/>
+      <c r="BM5" s="130"/>
+      <c r="BN5" s="131"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
@@ -4081,7 +4565,7 @@
         <v>T</v>
       </c>
       <c r="AQ7" s="88" t="str">
-        <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
+        <f t="shared" ref="AQ7:CT7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
       <c r="AR7" s="88" t="str">
@@ -4354,17 +4838,17 @@
       </c>
       <c r="F10" s="70">
         <f t="shared" ref="F10:F31" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="G10" s="52">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" s="53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="54">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J10" s="67"/>
       <c r="K10" s="73"/>
@@ -4434,21 +4918,21 @@
       </c>
       <c r="D11" s="93"/>
       <c r="E11" s="69">
-        <v>43893</v>
+        <v>43907</v>
       </c>
       <c r="F11" s="70">
         <f t="shared" si="6"/>
-        <v>43899</v>
+        <v>43927</v>
       </c>
       <c r="G11" s="52">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H11" s="53">
         <v>0</v>
       </c>
       <c r="I11" s="54">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J11" s="67"/>
       <c r="K11" s="73"/>
@@ -4518,21 +5002,21 @@
       </c>
       <c r="D12" s="93"/>
       <c r="E12" s="69">
-        <v>43900</v>
+        <v>43914</v>
       </c>
       <c r="F12" s="70">
         <f t="shared" si="6"/>
-        <v>43920</v>
+        <v>43941</v>
       </c>
       <c r="G12" s="52">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H12" s="53">
         <v>0</v>
       </c>
       <c r="I12" s="54">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J12" s="67"/>
       <c r="K12" s="73"/>
@@ -4602,11 +5086,11 @@
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="69">
-        <v>43907</v>
+        <v>43921</v>
       </c>
       <c r="F13" s="70">
         <f t="shared" si="6"/>
-        <v>43913</v>
+        <v>43927</v>
       </c>
       <c r="G13" s="52">
         <v>7</v>
@@ -6335,6 +6819,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -6345,15 +6838,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H31">
@@ -6371,20 +6855,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="9" priority="57">
+    <cfRule type="expression" dxfId="44" priority="57">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN31">
-    <cfRule type="expression" dxfId="8" priority="60">
+    <cfRule type="expression" dxfId="53" priority="60">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="61">
+    <cfRule type="expression" dxfId="52" priority="61">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN31">
-    <cfRule type="expression" dxfId="6" priority="20">
+  <conditionalFormatting sqref="K6:BN31 BO6:DR7">
+    <cfRule type="expression" dxfId="51" priority="20">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6403,15 +6887,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="48" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6430,15 +6914,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Ressources/Planning.xlsx
+++ b/Ressources/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic.jurasz\Desktop\He-arc\3eme_annee\TB\intranetcinepel\Ressources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loic.jurasz\Desktop\TBperso\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695EA36F-01EF-47DE-A919-C618FAE5E5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD63687-99BC-40A0-8B34-0093D2C6C9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BM$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -400,30 +400,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Work Days</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Counts the number of work days, excluding the weekends (Saturday and Sunday). In the PRO version, you can customize the work week and list specific non-working days like holidays. In the PRO version, the default input is the Work Days instead of the Calendar Days.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -452,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>WBS</t>
   </si>
@@ -473,9 +449,6 @@
   </si>
   <si>
     <t>Creating Task Dependencies</t>
-  </si>
-  <si>
-    <t>[Task]</t>
   </si>
   <si>
     <t>Changing the Color of the Bars in the Gantt Chart</t>
@@ -611,9 +584,6 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>LEAD</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -621,12 +591,6 @@
   </si>
   <si>
     <t>DAYS</t>
-  </si>
-  <si>
-    <t>% DONE</t>
-  </si>
-  <si>
-    <t>WORK DAYS</t>
   </si>
   <si>
     <t>PREDECESSOR</t>
@@ -1438,10 +1402,58 @@
     <t>Planning</t>
   </si>
   <si>
-    <t>Horaire</t>
-  </si>
-  <si>
-    <t>Fiche d'heure</t>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Fonction CRUD</t>
+  </si>
+  <si>
+    <t>JSON de base</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>parsing JSON</t>
+  </si>
+  <si>
+    <t>parsing template dans le planning</t>
+  </si>
+  <si>
+    <t>CRUD fonctionnel</t>
+  </si>
+  <si>
+    <t>Informations</t>
+  </si>
+  <si>
+    <t>Gestion utilisateur</t>
+  </si>
+  <si>
+    <t>Reset de mot de passe</t>
+  </si>
+  <si>
+    <t>Création utilisateur</t>
+  </si>
+  <si>
+    <t>Edition et suppression utilisateur</t>
+  </si>
+  <si>
+    <t>Créer des notes d'informations</t>
+  </si>
+  <si>
+    <t>Editer et supprimer les notes d'informations</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Finalisation</t>
+  </si>
+  <si>
+    <t>Correction des bugs</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2332,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2421,9 +2433,6 @@
     <xf numFmtId="9" fontId="40" fillId="22" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2436,9 +2445,6 @@
     <xf numFmtId="9" fontId="45" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2463,9 +2469,6 @@
     <xf numFmtId="9" fontId="40" fillId="22" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2504,7 +2507,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2551,9 +2553,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2624,24 +2623,6 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2649,9 +2630,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2703,7 +2702,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="27" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="7">
     <dxf>
       <border>
         <left style="thin">
@@ -2715,16 +2714,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2739,16 +2728,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2759,444 +2738,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3225,54 +2766,12 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3364,23 +2863,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="17"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>213783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3432,16 +2931,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
+          <xdr:col>26</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3881,11 +3380,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN33"/>
+  <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3897,58 +3396,56 @@
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="65" width="2.42578125" style="1" customWidth="1"/>
+    <col min="66" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>107</v>
+    <row r="1" spans="1:65" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
-      <c r="I1" s="95"/>
-      <c r="K1" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+    </row>
+    <row r="2" spans="1:65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="38"/>
       <c r="C3" s="4"/>
@@ -3957,6 +3454,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
@@ -3973,205 +3471,202 @@
       <c r="X3" s="24"/>
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-    </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="134">
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="126">
         <v>43879</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="94">
-        <v>1</v>
-      </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="126" t="str">
-        <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="126" t="str">
-        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="126" t="str">
-        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="126" t="str">
-        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="128"/>
-      <c r="AM4" s="126" t="str">
-        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="127"/>
-      <c r="AQ4" s="127"/>
-      <c r="AR4" s="127"/>
-      <c r="AS4" s="128"/>
-      <c r="AT4" s="126" t="str">
-        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
-      <c r="AX4" s="127"/>
-      <c r="AY4" s="127"/>
-      <c r="AZ4" s="128"/>
-      <c r="BA4" s="126" t="str">
-        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="127"/>
-      <c r="BC4" s="127"/>
-      <c r="BD4" s="127"/>
-      <c r="BE4" s="127"/>
-      <c r="BF4" s="127"/>
-      <c r="BG4" s="128"/>
-      <c r="BH4" s="126" t="str">
-        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="127"/>
-      <c r="BJ4" s="127"/>
-      <c r="BK4" s="127"/>
-      <c r="BL4" s="127"/>
-      <c r="BM4" s="127"/>
-      <c r="BN4" s="128"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="129">
-        <f>K6</f>
-        <v>43878</v>
-      </c>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="129">
-        <f>R6</f>
-        <v>43885</v>
-      </c>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="129">
-        <f>Y6</f>
-        <v>43892</v>
-      </c>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="129">
-        <f>AF6</f>
-        <v>43899</v>
-      </c>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="129">
-        <f>AM6</f>
-        <v>43906</v>
-      </c>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="131"/>
-      <c r="AT5" s="129">
-        <f>AT6</f>
-        <v>43913</v>
-      </c>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="130"/>
-      <c r="AW5" s="130"/>
-      <c r="AX5" s="130"/>
-      <c r="AY5" s="130"/>
-      <c r="AZ5" s="131"/>
-      <c r="BA5" s="129">
-        <f>BA6</f>
-        <v>43920</v>
-      </c>
-      <c r="BB5" s="130"/>
-      <c r="BC5" s="130"/>
-      <c r="BD5" s="130"/>
-      <c r="BE5" s="130"/>
-      <c r="BF5" s="130"/>
-      <c r="BG5" s="131"/>
-      <c r="BH5" s="129">
-        <f>BH6</f>
-        <v>43927</v>
-      </c>
-      <c r="BI5" s="130"/>
-      <c r="BJ5" s="130"/>
-      <c r="BK5" s="130"/>
-      <c r="BL5" s="130"/>
-      <c r="BM5" s="130"/>
-      <c r="BN5" s="131"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="90">
+        <v>17</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="123" t="str">
+        <f>"Week "&amp;(J6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 17</v>
+      </c>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="123" t="str">
+        <f>"Week "&amp;(Q6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 18</v>
+      </c>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="123" t="str">
+        <f>"Week "&amp;(X6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 19</v>
+      </c>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="123" t="str">
+        <f>"Week "&amp;(AE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 20</v>
+      </c>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="123" t="str">
+        <f>"Week "&amp;(AL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 21</v>
+      </c>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="123" t="str">
+        <f>"Week "&amp;(AS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 22</v>
+      </c>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="125"/>
+      <c r="AZ4" s="123" t="str">
+        <f>"Week "&amp;(AZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 23</v>
+      </c>
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="125"/>
+      <c r="BG4" s="123" t="str">
+        <f>"Week "&amp;(BG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 24</v>
+      </c>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="124"/>
+      <c r="BM4" s="125"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="127">
+        <f>J6</f>
+        <v>43990</v>
+      </c>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="127">
+        <f>Q6</f>
+        <v>43997</v>
+      </c>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="127">
+        <f>X6</f>
+        <v>44004</v>
+      </c>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="127">
+        <f>AE6</f>
+        <v>44011</v>
+      </c>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="128"/>
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="127">
+        <f>AL6</f>
+        <v>44018</v>
+      </c>
+      <c r="AM5" s="128"/>
+      <c r="AN5" s="128"/>
+      <c r="AO5" s="128"/>
+      <c r="AP5" s="128"/>
+      <c r="AQ5" s="128"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="127">
+        <f>AS6</f>
+        <v>44025</v>
+      </c>
+      <c r="AT5" s="128"/>
+      <c r="AU5" s="128"/>
+      <c r="AV5" s="128"/>
+      <c r="AW5" s="128"/>
+      <c r="AX5" s="128"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="127">
+        <f>AZ6</f>
+        <v>44032</v>
+      </c>
+      <c r="BA5" s="128"/>
+      <c r="BB5" s="128"/>
+      <c r="BC5" s="128"/>
+      <c r="BD5" s="128"/>
+      <c r="BE5" s="128"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="127">
+        <f>BG6</f>
+        <v>44039</v>
+      </c>
+      <c r="BH5" s="128"/>
+      <c r="BI5" s="128"/>
+      <c r="BJ5" s="128"/>
+      <c r="BK5" s="128"/>
+      <c r="BL5" s="128"/>
+      <c r="BM5" s="129"/>
+    </row>
+    <row r="6" spans="1:65" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -4181,2667 +3676,2549 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="64">
+      <c r="J6" s="61">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43878</v>
-      </c>
-      <c r="L6" s="55">
-        <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43879</v>
-      </c>
-      <c r="M6" s="55">
+        <v>43990</v>
+      </c>
+      <c r="K6" s="53">
+        <f t="shared" ref="K6:AP6" si="0">J6+1</f>
+        <v>43991</v>
+      </c>
+      <c r="L6" s="53">
         <f t="shared" si="0"/>
-        <v>43880</v>
-      </c>
-      <c r="N6" s="55">
+        <v>43992</v>
+      </c>
+      <c r="M6" s="53">
         <f t="shared" si="0"/>
-        <v>43881</v>
-      </c>
-      <c r="O6" s="55">
+        <v>43993</v>
+      </c>
+      <c r="N6" s="53">
         <f t="shared" si="0"/>
-        <v>43882</v>
-      </c>
-      <c r="P6" s="55">
+        <v>43994</v>
+      </c>
+      <c r="O6" s="53">
         <f t="shared" si="0"/>
-        <v>43883</v>
-      </c>
-      <c r="Q6" s="65">
+        <v>43995</v>
+      </c>
+      <c r="P6" s="62">
         <f t="shared" si="0"/>
-        <v>43884</v>
-      </c>
-      <c r="R6" s="64">
+        <v>43996</v>
+      </c>
+      <c r="Q6" s="61">
         <f t="shared" si="0"/>
-        <v>43885</v>
-      </c>
-      <c r="S6" s="55">
+        <v>43997</v>
+      </c>
+      <c r="R6" s="53">
         <f t="shared" si="0"/>
-        <v>43886</v>
-      </c>
-      <c r="T6" s="55">
+        <v>43998</v>
+      </c>
+      <c r="S6" s="53">
         <f t="shared" si="0"/>
-        <v>43887</v>
-      </c>
-      <c r="U6" s="55">
+        <v>43999</v>
+      </c>
+      <c r="T6" s="53">
         <f t="shared" si="0"/>
-        <v>43888</v>
-      </c>
-      <c r="V6" s="55">
+        <v>44000</v>
+      </c>
+      <c r="U6" s="53">
         <f t="shared" si="0"/>
-        <v>43889</v>
-      </c>
-      <c r="W6" s="55">
+        <v>44001</v>
+      </c>
+      <c r="V6" s="53">
         <f t="shared" si="0"/>
-        <v>43890</v>
-      </c>
-      <c r="X6" s="65">
+        <v>44002</v>
+      </c>
+      <c r="W6" s="62">
         <f t="shared" si="0"/>
-        <v>43891</v>
-      </c>
-      <c r="Y6" s="64">
+        <v>44003</v>
+      </c>
+      <c r="X6" s="61">
         <f t="shared" si="0"/>
-        <v>43892</v>
-      </c>
-      <c r="Z6" s="55">
+        <v>44004</v>
+      </c>
+      <c r="Y6" s="53">
         <f t="shared" si="0"/>
-        <v>43893</v>
-      </c>
-      <c r="AA6" s="55">
+        <v>44005</v>
+      </c>
+      <c r="Z6" s="53">
         <f t="shared" si="0"/>
-        <v>43894</v>
-      </c>
-      <c r="AB6" s="55">
+        <v>44006</v>
+      </c>
+      <c r="AA6" s="53">
         <f t="shared" si="0"/>
-        <v>43895</v>
-      </c>
-      <c r="AC6" s="55">
+        <v>44007</v>
+      </c>
+      <c r="AB6" s="53">
         <f t="shared" si="0"/>
-        <v>43896</v>
-      </c>
-      <c r="AD6" s="55">
+        <v>44008</v>
+      </c>
+      <c r="AC6" s="53">
         <f t="shared" si="0"/>
-        <v>43897</v>
-      </c>
-      <c r="AE6" s="65">
+        <v>44009</v>
+      </c>
+      <c r="AD6" s="62">
         <f t="shared" si="0"/>
-        <v>43898</v>
-      </c>
-      <c r="AF6" s="64">
+        <v>44010</v>
+      </c>
+      <c r="AE6" s="61">
         <f t="shared" si="0"/>
-        <v>43899</v>
-      </c>
-      <c r="AG6" s="55">
+        <v>44011</v>
+      </c>
+      <c r="AF6" s="53">
         <f t="shared" si="0"/>
-        <v>43900</v>
-      </c>
-      <c r="AH6" s="55">
+        <v>44012</v>
+      </c>
+      <c r="AG6" s="53">
         <f t="shared" si="0"/>
-        <v>43901</v>
-      </c>
-      <c r="AI6" s="55">
+        <v>44013</v>
+      </c>
+      <c r="AH6" s="53">
         <f t="shared" si="0"/>
-        <v>43902</v>
-      </c>
-      <c r="AJ6" s="55">
+        <v>44014</v>
+      </c>
+      <c r="AI6" s="53">
         <f t="shared" si="0"/>
-        <v>43903</v>
-      </c>
-      <c r="AK6" s="55">
+        <v>44015</v>
+      </c>
+      <c r="AJ6" s="53">
         <f t="shared" si="0"/>
-        <v>43904</v>
-      </c>
-      <c r="AL6" s="65">
+        <v>44016</v>
+      </c>
+      <c r="AK6" s="62">
         <f t="shared" si="0"/>
-        <v>43905</v>
-      </c>
-      <c r="AM6" s="64">
+        <v>44017</v>
+      </c>
+      <c r="AL6" s="61">
         <f t="shared" si="0"/>
-        <v>43906</v>
-      </c>
-      <c r="AN6" s="55">
+        <v>44018</v>
+      </c>
+      <c r="AM6" s="53">
         <f t="shared" si="0"/>
-        <v>43907</v>
-      </c>
-      <c r="AO6" s="55">
+        <v>44019</v>
+      </c>
+      <c r="AN6" s="53">
         <f t="shared" si="0"/>
-        <v>43908</v>
-      </c>
-      <c r="AP6" s="55">
+        <v>44020</v>
+      </c>
+      <c r="AO6" s="53">
         <f t="shared" si="0"/>
-        <v>43909</v>
-      </c>
-      <c r="AQ6" s="55">
+        <v>44021</v>
+      </c>
+      <c r="AP6" s="53">
         <f t="shared" si="0"/>
-        <v>43910</v>
-      </c>
-      <c r="AR6" s="55">
-        <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43911</v>
-      </c>
-      <c r="AS6" s="65">
+        <v>44022</v>
+      </c>
+      <c r="AQ6" s="53">
+        <f t="shared" ref="AQ6:BM6" si="1">AP6+1</f>
+        <v>44023</v>
+      </c>
+      <c r="AR6" s="62">
         <f t="shared" si="1"/>
-        <v>43912</v>
-      </c>
-      <c r="AT6" s="64">
+        <v>44024</v>
+      </c>
+      <c r="AS6" s="61">
         <f t="shared" si="1"/>
-        <v>43913</v>
-      </c>
-      <c r="AU6" s="55">
+        <v>44025</v>
+      </c>
+      <c r="AT6" s="53">
         <f t="shared" si="1"/>
-        <v>43914</v>
-      </c>
-      <c r="AV6" s="55">
+        <v>44026</v>
+      </c>
+      <c r="AU6" s="53">
         <f t="shared" si="1"/>
-        <v>43915</v>
-      </c>
-      <c r="AW6" s="55">
+        <v>44027</v>
+      </c>
+      <c r="AV6" s="53">
         <f t="shared" si="1"/>
-        <v>43916</v>
-      </c>
-      <c r="AX6" s="55">
+        <v>44028</v>
+      </c>
+      <c r="AW6" s="53">
         <f t="shared" si="1"/>
-        <v>43917</v>
-      </c>
-      <c r="AY6" s="55">
+        <v>44029</v>
+      </c>
+      <c r="AX6" s="53">
         <f t="shared" si="1"/>
-        <v>43918</v>
-      </c>
-      <c r="AZ6" s="65">
+        <v>44030</v>
+      </c>
+      <c r="AY6" s="62">
         <f t="shared" si="1"/>
-        <v>43919</v>
-      </c>
-      <c r="BA6" s="64">
+        <v>44031</v>
+      </c>
+      <c r="AZ6" s="61">
         <f t="shared" si="1"/>
-        <v>43920</v>
-      </c>
-      <c r="BB6" s="55">
+        <v>44032</v>
+      </c>
+      <c r="BA6" s="53">
         <f t="shared" si="1"/>
-        <v>43921</v>
-      </c>
-      <c r="BC6" s="55">
+        <v>44033</v>
+      </c>
+      <c r="BB6" s="53">
         <f t="shared" si="1"/>
-        <v>43922</v>
-      </c>
-      <c r="BD6" s="55">
+        <v>44034</v>
+      </c>
+      <c r="BC6" s="53">
         <f t="shared" si="1"/>
-        <v>43923</v>
-      </c>
-      <c r="BE6" s="55">
+        <v>44035</v>
+      </c>
+      <c r="BD6" s="53">
         <f t="shared" si="1"/>
-        <v>43924</v>
-      </c>
-      <c r="BF6" s="55">
+        <v>44036</v>
+      </c>
+      <c r="BE6" s="53">
         <f t="shared" si="1"/>
-        <v>43925</v>
-      </c>
-      <c r="BG6" s="65">
+        <v>44037</v>
+      </c>
+      <c r="BF6" s="62">
         <f t="shared" si="1"/>
-        <v>43926</v>
-      </c>
-      <c r="BH6" s="64">
+        <v>44038</v>
+      </c>
+      <c r="BG6" s="61">
         <f t="shared" si="1"/>
-        <v>43927</v>
-      </c>
-      <c r="BI6" s="55">
+        <v>44039</v>
+      </c>
+      <c r="BH6" s="53">
         <f t="shared" si="1"/>
-        <v>43928</v>
-      </c>
-      <c r="BJ6" s="55">
+        <v>44040</v>
+      </c>
+      <c r="BI6" s="53">
         <f t="shared" si="1"/>
-        <v>43929</v>
-      </c>
-      <c r="BK6" s="55">
+        <v>44041</v>
+      </c>
+      <c r="BJ6" s="53">
         <f t="shared" si="1"/>
-        <v>43930</v>
-      </c>
-      <c r="BL6" s="55">
+        <v>44042</v>
+      </c>
+      <c r="BK6" s="53">
         <f t="shared" si="1"/>
-        <v>43931</v>
-      </c>
-      <c r="BM6" s="55">
+        <v>44043</v>
+      </c>
+      <c r="BL6" s="53">
         <f t="shared" si="1"/>
-        <v>43932</v>
-      </c>
-      <c r="BN6" s="65">
+        <v>44044</v>
+      </c>
+      <c r="BM6" s="62">
         <f t="shared" si="1"/>
-        <v>43933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" s="90" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="86" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="F7" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="86" t="s">
+      <c r="G7" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="87" t="str">
-        <f t="shared" ref="K7:AP7" si="2">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
+      <c r="H7" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="80"/>
+      <c r="J7" s="83" t="str">
+        <f t="shared" ref="J7:AO7" si="2">CHOOSE(WEEKDAY(J6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L7" s="88" t="str">
+      <c r="K7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="M7" s="88" t="str">
+      <c r="L7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="N7" s="88" t="str">
+      <c r="M7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="O7" s="88" t="str">
+      <c r="N7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="P7" s="88" t="str">
+      <c r="O7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="89" t="str">
+      <c r="P7" s="85" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="R7" s="87" t="str">
+      <c r="Q7" s="83" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="S7" s="88" t="str">
+      <c r="R7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T7" s="88" t="str">
+      <c r="S7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="U7" s="88" t="str">
+      <c r="T7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="V7" s="88" t="str">
+      <c r="U7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="W7" s="88" t="str">
+      <c r="V7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="X7" s="89" t="str">
+      <c r="W7" s="85" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="87" t="str">
+      <c r="X7" s="83" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Z7" s="88" t="str">
+      <c r="Y7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AA7" s="88" t="str">
+      <c r="Z7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AB7" s="88" t="str">
+      <c r="AA7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AC7" s="88" t="str">
+      <c r="AB7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AD7" s="88" t="str">
+      <c r="AC7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="89" t="str">
+      <c r="AD7" s="85" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="87" t="str">
+      <c r="AE7" s="83" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AG7" s="88" t="str">
+      <c r="AF7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AH7" s="88" t="str">
+      <c r="AG7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AI7" s="88" t="str">
+      <c r="AH7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AJ7" s="88" t="str">
+      <c r="AI7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AK7" s="88" t="str">
+      <c r="AJ7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AL7" s="89" t="str">
+      <c r="AK7" s="85" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="87" t="str">
+      <c r="AL7" s="83" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AN7" s="88" t="str">
+      <c r="AM7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="88" t="str">
+      <c r="AN7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AP7" s="88" t="str">
+      <c r="AO7" s="84" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AQ7" s="88" t="str">
-        <f t="shared" ref="AQ7:CT7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
+      <c r="AP7" s="84" t="str">
+        <f t="shared" ref="AP7:BM7" si="3">CHOOSE(WEEKDAY(AP6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="88" t="str">
+      <c r="AQ7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="89" t="str">
+      <c r="AR7" s="85" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="87" t="str">
+      <c r="AS7" s="83" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AU7" s="88" t="str">
+      <c r="AT7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AV7" s="88" t="str">
+      <c r="AU7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AW7" s="88" t="str">
+      <c r="AV7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AX7" s="88" t="str">
+      <c r="AW7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="88" t="str">
+      <c r="AX7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AZ7" s="89" t="str">
+      <c r="AY7" s="85" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="87" t="str">
+      <c r="AZ7" s="83" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BB7" s="88" t="str">
+      <c r="BA7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BC7" s="88" t="str">
+      <c r="BB7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BD7" s="88" t="str">
+      <c r="BC7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BE7" s="88" t="str">
+      <c r="BD7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BF7" s="88" t="str">
+      <c r="BE7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BG7" s="89" t="str">
+      <c r="BF7" s="85" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="87" t="str">
+      <c r="BG7" s="83" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BI7" s="88" t="str">
+      <c r="BH7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BJ7" s="88" t="str">
+      <c r="BI7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BK7" s="88" t="str">
+      <c r="BJ7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BL7" s="88" t="str">
+      <c r="BK7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BM7" s="88" t="str">
+      <c r="BL7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BN7" s="89" t="str">
+      <c r="BM7" s="85" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="str">
+    <row r="8" spans="1:65" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="81" t="str">
+      <c r="B8" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="77" t="str">
         <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63" t="str">
-        <f t="shared" ref="I8:I31" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="72"/>
-    </row>
-    <row r="9" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
-        <f t="shared" ref="A9:A13" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="69"/>
+    </row>
+    <row r="9" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="str">
+        <f t="shared" ref="A9:A13" si="4">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="69">
+      <c r="B9" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="66">
         <v>43879</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="67">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
         <v>43892</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <v>14</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <v>1</v>
       </c>
-      <c r="I9" s="54">
-        <f>IF(OR(F9=0,E9=0)," - ",NETWORKDAYS(E9,F9))</f>
-        <v>10</v>
-      </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="73"/>
-      <c r="BK9" s="73"/>
-      <c r="BL9" s="73"/>
-      <c r="BM9" s="73"/>
-      <c r="BN9" s="73"/>
-    </row>
-    <row r="10" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="I9" s="64"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="70"/>
+      <c r="BF9" s="70"/>
+      <c r="BG9" s="70"/>
+      <c r="BH9" s="70"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="70"/>
+      <c r="BM9" s="70"/>
+    </row>
+    <row r="10" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="66">
+        <v>43893</v>
+      </c>
+      <c r="F10" s="67">
+        <f t="shared" ref="F10:F24" si="5">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <v>43913</v>
+      </c>
+      <c r="G10" s="51">
+        <v>21</v>
+      </c>
+      <c r="H10" s="52">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="70"/>
+      <c r="BI10" s="70"/>
+      <c r="BJ10" s="70"/>
+      <c r="BK10" s="70"/>
+      <c r="BL10" s="70"/>
+      <c r="BM10" s="70"/>
+    </row>
+    <row r="11" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="66">
+        <v>43907</v>
+      </c>
+      <c r="F11" s="67">
         <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="69">
-        <v>43893</v>
-      </c>
-      <c r="F10" s="70">
-        <f t="shared" ref="F10:F31" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>43913</v>
-      </c>
-      <c r="G10" s="52">
+        <v>43927</v>
+      </c>
+      <c r="G11" s="51">
         <v>21</v>
       </c>
-      <c r="H10" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="54">
+      <c r="H11" s="52">
+        <v>1</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="70"/>
+      <c r="BG11" s="70"/>
+      <c r="BH11" s="70"/>
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="70"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="70"/>
+      <c r="BM11" s="70"/>
+    </row>
+    <row r="12" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="73"/>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="73"/>
-      <c r="BN10" s="73"/>
-    </row>
-    <row r="11" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="66">
+        <v>43914</v>
+      </c>
+      <c r="F12" s="67">
         <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="69">
-        <v>43907</v>
-      </c>
-      <c r="F11" s="70">
-        <f t="shared" si="6"/>
+        <v>43941</v>
+      </c>
+      <c r="G12" s="51">
+        <v>28</v>
+      </c>
+      <c r="H12" s="52">
+        <v>1</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="70"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="70"/>
+      <c r="BH12" s="70"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="70"/>
+      <c r="BK12" s="70"/>
+      <c r="BL12" s="70"/>
+      <c r="BM12" s="70"/>
+    </row>
+    <row r="13" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="66">
+        <v>43921</v>
+      </c>
+      <c r="F13" s="67">
+        <f t="shared" si="5"/>
         <v>43927</v>
       </c>
-      <c r="G11" s="52">
-        <v>21</v>
-      </c>
-      <c r="H11" s="53">
-        <v>0</v>
-      </c>
-      <c r="I11" s="54">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="73"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="73"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="73"/>
-      <c r="BJ11" s="73"/>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="73"/>
-      <c r="BM11" s="73"/>
-      <c r="BN11" s="73"/>
-    </row>
-    <row r="12" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="str">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="69">
-        <v>43914</v>
-      </c>
-      <c r="F12" s="70">
-        <f t="shared" si="6"/>
-        <v>43941</v>
-      </c>
-      <c r="G12" s="52">
-        <v>28</v>
-      </c>
-      <c r="H12" s="53">
-        <v>0</v>
-      </c>
-      <c r="I12" s="54">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="73"/>
-      <c r="BF12" s="73"/>
-      <c r="BG12" s="73"/>
-      <c r="BH12" s="73"/>
-      <c r="BI12" s="73"/>
-      <c r="BJ12" s="73"/>
-      <c r="BK12" s="73"/>
-      <c r="BL12" s="73"/>
-      <c r="BM12" s="73"/>
-      <c r="BN12" s="73"/>
-    </row>
-    <row r="13" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="str">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="69">
-        <v>43921</v>
-      </c>
-      <c r="F13" s="70">
-        <f t="shared" si="6"/>
-        <v>43927</v>
-      </c>
-      <c r="G13" s="52">
+      <c r="G13" s="51">
         <v>7</v>
       </c>
-      <c r="H13" s="53">
-        <v>0</v>
-      </c>
-      <c r="I13" s="54">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="73"/>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="73"/>
-      <c r="BM13" s="73"/>
-      <c r="BN13" s="73"/>
-    </row>
-    <row r="14" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="64"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="70"/>
+      <c r="BJ13" s="70"/>
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="70"/>
+      <c r="BM13" s="70"/>
+    </row>
+    <row r="14" spans="1:65" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="46"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71" t="str">
-        <f t="shared" si="6"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
-      <c r="I14" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="75"/>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="75"/>
-      <c r="AY14" s="75"/>
-      <c r="AZ14" s="75"/>
-      <c r="BA14" s="75"/>
-      <c r="BB14" s="75"/>
-      <c r="BC14" s="75"/>
-      <c r="BD14" s="75"/>
-      <c r="BE14" s="75"/>
-      <c r="BF14" s="75"/>
-      <c r="BG14" s="75"/>
-      <c r="BH14" s="75"/>
-      <c r="BI14" s="75"/>
-      <c r="BJ14" s="75"/>
-      <c r="BK14" s="75"/>
-      <c r="BL14" s="75"/>
-      <c r="BM14" s="75"/>
-      <c r="BN14" s="75"/>
-    </row>
-    <row r="15" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="str">
+      <c r="I14" s="65"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="72"/>
+      <c r="BD14" s="72"/>
+      <c r="BE14" s="72"/>
+      <c r="BF14" s="72"/>
+      <c r="BG14" s="72"/>
+      <c r="BH14" s="72"/>
+      <c r="BI14" s="72"/>
+      <c r="BJ14" s="72"/>
+      <c r="BK14" s="72"/>
+      <c r="BL14" s="72"/>
+      <c r="BM14" s="72"/>
+    </row>
+    <row r="15" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B15" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="69">
-        <v>43141</v>
-      </c>
-      <c r="F15" s="70">
-        <f t="shared" si="6"/>
-        <v>43144</v>
-      </c>
-      <c r="G15" s="52">
-        <v>4</v>
-      </c>
-      <c r="H15" s="53">
-        <v>0</v>
-      </c>
-      <c r="I15" s="54">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="73"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="73"/>
-      <c r="AZ15" s="73"/>
-      <c r="BA15" s="73"/>
-      <c r="BB15" s="73"/>
-      <c r="BC15" s="73"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="73"/>
-      <c r="BF15" s="73"/>
-      <c r="BG15" s="73"/>
-      <c r="BH15" s="73"/>
-      <c r="BI15" s="73"/>
-      <c r="BJ15" s="73"/>
-      <c r="BK15" s="73"/>
-      <c r="BL15" s="73"/>
-      <c r="BM15" s="73"/>
-      <c r="BN15" s="73"/>
-    </row>
-    <row r="16" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="str">
+      <c r="B15" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="66">
+        <v>43941</v>
+      </c>
+      <c r="F15" s="67">
+        <f t="shared" si="5"/>
+        <v>43947</v>
+      </c>
+      <c r="G15" s="51">
+        <v>7</v>
+      </c>
+      <c r="H15" s="52">
+        <v>1</v>
+      </c>
+      <c r="I15" s="64"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
+      <c r="BC15" s="70"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="70"/>
+      <c r="BF15" s="70"/>
+      <c r="BG15" s="70"/>
+      <c r="BH15" s="70"/>
+      <c r="BI15" s="70"/>
+      <c r="BJ15" s="70"/>
+      <c r="BK15" s="70"/>
+      <c r="BL15" s="70"/>
+      <c r="BM15" s="70"/>
+    </row>
+    <row r="16" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="66">
+        <v>43946</v>
+      </c>
+      <c r="F16" s="67">
+        <f t="shared" si="5"/>
+        <v>43952</v>
+      </c>
+      <c r="G16" s="51">
         <v>7</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="69">
-        <v>43145</v>
-      </c>
-      <c r="F16" s="70">
-        <f t="shared" si="6"/>
-        <v>43147</v>
-      </c>
-      <c r="G16" s="52">
-        <v>3</v>
-      </c>
-      <c r="H16" s="53">
-        <v>0</v>
-      </c>
-      <c r="I16" s="54">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="73"/>
-    </row>
-    <row r="17" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B17" s="92" t="s">
+      <c r="H16" s="52">
+        <v>1</v>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="70"/>
+      <c r="BH16" s="70"/>
+      <c r="BI16" s="70"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="70"/>
+      <c r="BL16" s="70"/>
+      <c r="BM16" s="70"/>
+    </row>
+    <row r="17" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="66">
+        <v>43952</v>
+      </c>
+      <c r="F17" s="67">
+        <f t="shared" si="5"/>
+        <v>43958</v>
+      </c>
+      <c r="G17" s="51">
         <v>7</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="69">
-        <v>43145</v>
-      </c>
-      <c r="F17" s="70">
-        <f t="shared" si="6"/>
-        <v>43147</v>
-      </c>
-      <c r="G17" s="52">
-        <v>3</v>
-      </c>
-      <c r="H17" s="53">
-        <v>0</v>
-      </c>
-      <c r="I17" s="54">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="73"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="73"/>
-      <c r="BL17" s="73"/>
-      <c r="BM17" s="73"/>
-      <c r="BN17" s="73"/>
-    </row>
-    <row r="18" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="str">
+      <c r="H17" s="52">
+        <v>1</v>
+      </c>
+      <c r="I17" s="64"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="70"/>
+      <c r="BF17" s="70"/>
+      <c r="BG17" s="70"/>
+      <c r="BH17" s="70"/>
+      <c r="BI17" s="70"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="70"/>
+      <c r="BL17" s="70"/>
+      <c r="BM17" s="70"/>
+    </row>
+    <row r="18" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B18" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="69">
-        <v>43148</v>
-      </c>
-      <c r="F18" s="70">
-        <f t="shared" si="6"/>
-        <v>43153</v>
-      </c>
-      <c r="G18" s="52">
-        <v>6</v>
-      </c>
-      <c r="H18" s="53">
-        <v>0</v>
-      </c>
-      <c r="I18" s="54">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="73"/>
-      <c r="BM18" s="73"/>
-      <c r="BN18" s="73"/>
-    </row>
-    <row r="19" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="69">
-        <v>43154</v>
-      </c>
-      <c r="F19" s="70">
-        <f t="shared" si="6"/>
-        <v>43156</v>
-      </c>
-      <c r="G19" s="52">
+      <c r="B18" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="66">
+        <v>43958</v>
+      </c>
+      <c r="F18" s="67">
+        <f t="shared" si="5"/>
+        <v>43962</v>
+      </c>
+      <c r="G18" s="51">
+        <v>5</v>
+      </c>
+      <c r="H18" s="52">
+        <v>1</v>
+      </c>
+      <c r="I18" s="64"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="70"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="70"/>
+      <c r="BE18" s="70"/>
+      <c r="BF18" s="70"/>
+      <c r="BG18" s="70"/>
+      <c r="BH18" s="70"/>
+      <c r="BI18" s="70"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="70"/>
+      <c r="BL18" s="70"/>
+      <c r="BM18" s="70"/>
+    </row>
+    <row r="19" spans="1:65" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="H19" s="53">
-        <v>0</v>
-      </c>
-      <c r="I19" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="73"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="73"/>
-      <c r="BL19" s="73"/>
-      <c r="BM19" s="73"/>
-      <c r="BN19" s="73"/>
-    </row>
-    <row r="20" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71" t="str">
-        <f t="shared" si="6"/>
+      <c r="B19" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="75"/>
-      <c r="AP20" s="75"/>
-      <c r="AQ20" s="75"/>
-      <c r="AR20" s="75"/>
-      <c r="AS20" s="75"/>
-      <c r="AT20" s="75"/>
-      <c r="AU20" s="75"/>
-      <c r="AV20" s="75"/>
-      <c r="AW20" s="75"/>
-      <c r="AX20" s="75"/>
-      <c r="AY20" s="75"/>
-      <c r="AZ20" s="75"/>
-      <c r="BA20" s="75"/>
-      <c r="BB20" s="75"/>
-      <c r="BC20" s="75"/>
-      <c r="BD20" s="75"/>
-      <c r="BE20" s="75"/>
-      <c r="BF20" s="75"/>
-      <c r="BG20" s="75"/>
-      <c r="BH20" s="75"/>
-      <c r="BI20" s="75"/>
-      <c r="BJ20" s="75"/>
-      <c r="BK20" s="75"/>
-      <c r="BL20" s="75"/>
-      <c r="BM20" s="75"/>
-      <c r="BN20" s="75"/>
-    </row>
-    <row r="21" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="str">
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="72"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="72"/>
+      <c r="BE19" s="72"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="72"/>
+      <c r="BH19" s="72"/>
+      <c r="BI19" s="72"/>
+      <c r="BJ19" s="72"/>
+      <c r="BK19" s="72"/>
+      <c r="BL19" s="72"/>
+      <c r="BM19" s="72"/>
+    </row>
+    <row r="20" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B21" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="69">
-        <v>43141</v>
-      </c>
-      <c r="F21" s="70">
-        <f t="shared" si="6"/>
-        <v>43144</v>
-      </c>
-      <c r="G21" s="52">
-        <v>4</v>
-      </c>
-      <c r="H21" s="53">
-        <v>0</v>
-      </c>
-      <c r="I21" s="54">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="73"/>
-      <c r="BA21" s="73"/>
-      <c r="BB21" s="73"/>
-      <c r="BC21" s="73"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="73"/>
-      <c r="BF21" s="73"/>
-      <c r="BG21" s="73"/>
-      <c r="BH21" s="73"/>
-      <c r="BI21" s="73"/>
-      <c r="BJ21" s="73"/>
-      <c r="BK21" s="73"/>
-      <c r="BL21" s="73"/>
-      <c r="BM21" s="73"/>
-      <c r="BN21" s="73"/>
-    </row>
-    <row r="22" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="str">
+      <c r="B20" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="89"/>
+      <c r="E20" s="66">
+        <v>43941</v>
+      </c>
+      <c r="F20" s="67">
+        <f t="shared" si="5"/>
+        <v>43941</v>
+      </c>
+      <c r="G20" s="51">
+        <v>1</v>
+      </c>
+      <c r="H20" s="52">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="70"/>
+      <c r="BF20" s="70"/>
+      <c r="BG20" s="70"/>
+      <c r="BH20" s="70"/>
+      <c r="BI20" s="70"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
+      <c r="BL20" s="70"/>
+      <c r="BM20" s="70"/>
+    </row>
+    <row r="21" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B22" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="69">
-        <v>43145</v>
-      </c>
-      <c r="F22" s="70">
-        <f t="shared" si="6"/>
-        <v>43147</v>
-      </c>
-      <c r="G22" s="52">
-        <v>3</v>
-      </c>
-      <c r="H22" s="53">
-        <v>0</v>
-      </c>
-      <c r="I22" s="54">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J22" s="67"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
-      <c r="AY22" s="73"/>
-      <c r="AZ22" s="73"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="73"/>
-      <c r="BC22" s="73"/>
-      <c r="BD22" s="73"/>
-      <c r="BE22" s="73"/>
-      <c r="BF22" s="73"/>
-      <c r="BG22" s="73"/>
-      <c r="BH22" s="73"/>
-      <c r="BI22" s="73"/>
-      <c r="BJ22" s="73"/>
-      <c r="BK22" s="73"/>
-      <c r="BL22" s="73"/>
-      <c r="BM22" s="73"/>
-      <c r="BN22" s="73"/>
-    </row>
-    <row r="23" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="str">
+      <c r="B21" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="66">
+        <v>43962</v>
+      </c>
+      <c r="F21" s="67">
+        <f t="shared" si="5"/>
+        <v>43982</v>
+      </c>
+      <c r="G21" s="51">
+        <v>21</v>
+      </c>
+      <c r="H21" s="52">
+        <v>1</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="70"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="70"/>
+      <c r="BM21" s="70"/>
+    </row>
+    <row r="22" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B22" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="66">
+        <v>43966</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="5"/>
+        <v>43972</v>
+      </c>
+      <c r="G22" s="51">
         <v>7</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="69">
-        <v>43145</v>
-      </c>
-      <c r="F23" s="70">
-        <f t="shared" si="6"/>
-        <v>43147</v>
-      </c>
-      <c r="G23" s="52">
-        <v>3</v>
-      </c>
-      <c r="H23" s="53">
-        <v>0</v>
-      </c>
-      <c r="I23" s="54">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J23" s="67"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
-      <c r="AY23" s="73"/>
-      <c r="AZ23" s="73"/>
-      <c r="BA23" s="73"/>
-      <c r="BB23" s="73"/>
-      <c r="BC23" s="73"/>
-      <c r="BD23" s="73"/>
-      <c r="BE23" s="73"/>
-      <c r="BF23" s="73"/>
-      <c r="BG23" s="73"/>
-      <c r="BH23" s="73"/>
-      <c r="BI23" s="73"/>
-      <c r="BJ23" s="73"/>
-      <c r="BK23" s="73"/>
-      <c r="BL23" s="73"/>
-      <c r="BM23" s="73"/>
-      <c r="BN23" s="73"/>
-    </row>
-    <row r="24" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="str">
+      <c r="H22" s="52">
+        <v>1</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="70"/>
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="70"/>
+      <c r="BF22" s="70"/>
+      <c r="BG22" s="70"/>
+      <c r="BH22" s="70"/>
+      <c r="BI22" s="70"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="70"/>
+      <c r="BL22" s="70"/>
+      <c r="BM22" s="70"/>
+    </row>
+    <row r="23" spans="1:65" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B24" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="69">
-        <v>43148</v>
-      </c>
-      <c r="F24" s="70">
-        <f t="shared" si="6"/>
-        <v>43153</v>
-      </c>
-      <c r="G24" s="52">
-        <v>6</v>
-      </c>
-      <c r="H24" s="53">
-        <v>0</v>
-      </c>
-      <c r="I24" s="54">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J24" s="67"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
-      <c r="BA24" s="73"/>
-      <c r="BB24" s="73"/>
-      <c r="BC24" s="73"/>
-      <c r="BD24" s="73"/>
-      <c r="BE24" s="73"/>
-      <c r="BF24" s="73"/>
-      <c r="BG24" s="73"/>
-      <c r="BH24" s="73"/>
-      <c r="BI24" s="73"/>
-      <c r="BJ24" s="73"/>
-      <c r="BK24" s="73"/>
-      <c r="BL24" s="73"/>
-      <c r="BM24" s="73"/>
-      <c r="BN24" s="73"/>
-    </row>
-    <row r="25" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="str">
+      <c r="B23" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="66">
+        <v>43969</v>
+      </c>
+      <c r="F23" s="67">
+        <f t="shared" si="5"/>
+        <v>43989</v>
+      </c>
+      <c r="G23" s="51">
+        <v>21</v>
+      </c>
+      <c r="H23" s="52">
+        <v>1</v>
+      </c>
+      <c r="I23" s="64"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="70"/>
+      <c r="AM23" s="70"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="70"/>
+      <c r="AQ23" s="70"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="70"/>
+      <c r="BD23" s="70"/>
+      <c r="BE23" s="70"/>
+      <c r="BF23" s="70"/>
+      <c r="BG23" s="70"/>
+      <c r="BH23" s="70"/>
+      <c r="BI23" s="70"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="70"/>
+      <c r="BL23" s="70"/>
+      <c r="BM23" s="70"/>
+    </row>
+    <row r="24" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
-      <c r="B25" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="69">
-        <v>43154</v>
-      </c>
-      <c r="F25" s="70">
-        <f t="shared" si="6"/>
-        <v>43156</v>
-      </c>
-      <c r="G25" s="52">
-        <v>3</v>
-      </c>
-      <c r="H25" s="53">
-        <v>0</v>
-      </c>
-      <c r="I25" s="54">
-        <f t="shared" si="4"/>
+      <c r="B24" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="66">
+        <v>43976</v>
+      </c>
+      <c r="F24" s="67">
+        <f t="shared" si="5"/>
+        <v>43996</v>
+      </c>
+      <c r="G24" s="51">
+        <v>21</v>
+      </c>
+      <c r="H24" s="52">
         <v>1</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="73"/>
-      <c r="AZ25" s="73"/>
-      <c r="BA25" s="73"/>
-      <c r="BB25" s="73"/>
-      <c r="BC25" s="73"/>
-      <c r="BD25" s="73"/>
-      <c r="BE25" s="73"/>
-      <c r="BF25" s="73"/>
-      <c r="BG25" s="73"/>
-      <c r="BH25" s="73"/>
-      <c r="BI25" s="73"/>
-      <c r="BJ25" s="73"/>
-      <c r="BK25" s="73"/>
-      <c r="BL25" s="73"/>
-      <c r="BM25" s="73"/>
-      <c r="BN25" s="73"/>
-    </row>
-    <row r="26" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="str">
+      <c r="I24" s="64"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="70"/>
+      <c r="AM24" s="70"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="70"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="70"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="70"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="70"/>
+      <c r="BA24" s="70"/>
+      <c r="BB24" s="70"/>
+      <c r="BC24" s="70"/>
+      <c r="BD24" s="70"/>
+      <c r="BE24" s="70"/>
+      <c r="BF24" s="70"/>
+      <c r="BG24" s="70"/>
+      <c r="BH24" s="70"/>
+      <c r="BI24" s="70"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="70"/>
+      <c r="BL24" s="70"/>
+      <c r="BM24" s="70"/>
+    </row>
+    <row r="25" spans="1:65" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71" t="str">
-        <f t="shared" si="6"/>
+      <c r="B25" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68" t="str">
+        <f t="shared" ref="F25:F28" si="6">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="75"/>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="75"/>
-      <c r="AP26" s="75"/>
-      <c r="AQ26" s="75"/>
-      <c r="AR26" s="75"/>
-      <c r="AS26" s="75"/>
-      <c r="AT26" s="75"/>
-      <c r="AU26" s="75"/>
-      <c r="AV26" s="75"/>
-      <c r="AW26" s="75"/>
-      <c r="AX26" s="75"/>
-      <c r="AY26" s="75"/>
-      <c r="AZ26" s="75"/>
-      <c r="BA26" s="75"/>
-      <c r="BB26" s="75"/>
-      <c r="BC26" s="75"/>
-      <c r="BD26" s="75"/>
-      <c r="BE26" s="75"/>
-      <c r="BF26" s="75"/>
-      <c r="BG26" s="75"/>
-      <c r="BH26" s="75"/>
-      <c r="BI26" s="75"/>
-      <c r="BJ26" s="75"/>
-      <c r="BK26" s="75"/>
-      <c r="BL26" s="75"/>
-      <c r="BM26" s="75"/>
-      <c r="BN26" s="75"/>
-    </row>
-    <row r="27" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="str">
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="72"/>
+      <c r="BA25" s="72"/>
+      <c r="BB25" s="72"/>
+      <c r="BC25" s="72"/>
+      <c r="BD25" s="72"/>
+      <c r="BE25" s="72"/>
+      <c r="BF25" s="72"/>
+      <c r="BG25" s="72"/>
+      <c r="BH25" s="72"/>
+      <c r="BI25" s="72"/>
+      <c r="BJ25" s="72"/>
+      <c r="BK25" s="72"/>
+      <c r="BL25" s="72"/>
+      <c r="BM25" s="72"/>
+    </row>
+    <row r="26" spans="1:65" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B26" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="89"/>
+      <c r="E26" s="66">
+        <v>43997</v>
+      </c>
+      <c r="F26" s="67">
+        <f t="shared" si="6"/>
+        <v>44003</v>
+      </c>
+      <c r="G26" s="51">
         <v>7</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="69">
-        <v>43129</v>
-      </c>
-      <c r="F27" s="70">
-        <f t="shared" si="6"/>
-        <v>43129</v>
-      </c>
-      <c r="G27" s="52">
+      <c r="H26" s="52">
         <v>1</v>
       </c>
-      <c r="H27" s="53">
-        <v>0</v>
-      </c>
-      <c r="I27" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="73"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="73"/>
-      <c r="AZ27" s="73"/>
-      <c r="BA27" s="73"/>
-      <c r="BB27" s="73"/>
-      <c r="BC27" s="73"/>
-      <c r="BD27" s="73"/>
-      <c r="BE27" s="73"/>
-      <c r="BF27" s="73"/>
-      <c r="BG27" s="73"/>
-      <c r="BH27" s="73"/>
-      <c r="BI27" s="73"/>
-      <c r="BJ27" s="73"/>
-      <c r="BK27" s="73"/>
-      <c r="BL27" s="73"/>
-      <c r="BM27" s="73"/>
-      <c r="BN27" s="73"/>
-    </row>
-    <row r="28" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="str">
+      <c r="I26" s="64"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="70"/>
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="70"/>
+      <c r="BB26" s="70"/>
+      <c r="BC26" s="70"/>
+      <c r="BD26" s="70"/>
+      <c r="BE26" s="70"/>
+      <c r="BF26" s="70"/>
+      <c r="BG26" s="70"/>
+      <c r="BH26" s="70"/>
+      <c r="BI26" s="70"/>
+      <c r="BJ26" s="70"/>
+      <c r="BK26" s="70"/>
+      <c r="BL26" s="70"/>
+      <c r="BM26" s="70"/>
+    </row>
+    <row r="27" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B27" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="89"/>
+      <c r="E27" s="66">
+        <v>44004</v>
+      </c>
+      <c r="F27" s="67">
+        <f t="shared" si="6"/>
+        <v>44010</v>
+      </c>
+      <c r="G27" s="51">
         <v>7</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="69">
-        <v>43130</v>
-      </c>
-      <c r="F28" s="70">
-        <f t="shared" si="6"/>
-        <v>43130</v>
-      </c>
-      <c r="G28" s="52">
+      <c r="H27" s="52">
         <v>1</v>
       </c>
-      <c r="H28" s="53">
-        <v>0</v>
-      </c>
-      <c r="I28" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
-      <c r="BA28" s="73"/>
-      <c r="BB28" s="73"/>
-      <c r="BC28" s="73"/>
-      <c r="BD28" s="73"/>
-      <c r="BE28" s="73"/>
-      <c r="BF28" s="73"/>
-      <c r="BG28" s="73"/>
-      <c r="BH28" s="73"/>
-      <c r="BI28" s="73"/>
-      <c r="BJ28" s="73"/>
-      <c r="BK28" s="73"/>
-      <c r="BL28" s="73"/>
-      <c r="BM28" s="73"/>
-      <c r="BN28" s="73"/>
-    </row>
-    <row r="29" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="str">
+      <c r="I27" s="64"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="70"/>
+      <c r="AM27" s="70"/>
+      <c r="AN27" s="70"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="70"/>
+      <c r="AS27" s="70"/>
+      <c r="AT27" s="70"/>
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="70"/>
+      <c r="AW27" s="70"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="70"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="70"/>
+      <c r="BD27" s="70"/>
+      <c r="BE27" s="70"/>
+      <c r="BF27" s="70"/>
+      <c r="BG27" s="70"/>
+      <c r="BH27" s="70"/>
+      <c r="BI27" s="70"/>
+      <c r="BJ27" s="70"/>
+      <c r="BK27" s="70"/>
+      <c r="BL27" s="70"/>
+      <c r="BM27" s="70"/>
+    </row>
+    <row r="28" spans="1:65" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B28" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="66">
+        <v>44011</v>
+      </c>
+      <c r="F28" s="67">
+        <f t="shared" si="6"/>
+        <v>44017</v>
+      </c>
+      <c r="G28" s="51">
         <v>7</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="69">
-        <v>43131</v>
-      </c>
-      <c r="F29" s="70">
-        <f t="shared" si="6"/>
-        <v>43131</v>
-      </c>
-      <c r="G29" s="52">
+      <c r="H28" s="52">
         <v>1</v>
       </c>
-      <c r="H29" s="53">
-        <v>0</v>
-      </c>
-      <c r="I29" s="54">
-        <f t="shared" si="4"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="70"/>
+      <c r="AM28" s="70"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="70"/>
+      <c r="AS28" s="70"/>
+      <c r="AT28" s="70"/>
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="70"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="70"/>
+      <c r="BA28" s="70"/>
+      <c r="BB28" s="70"/>
+      <c r="BC28" s="70"/>
+      <c r="BD28" s="70"/>
+      <c r="BE28" s="70"/>
+      <c r="BF28" s="70"/>
+      <c r="BG28" s="70"/>
+      <c r="BH28" s="70"/>
+      <c r="BI28" s="70"/>
+      <c r="BJ28" s="70"/>
+      <c r="BK28" s="70"/>
+      <c r="BL28" s="70"/>
+      <c r="BM28" s="70"/>
+    </row>
+    <row r="29" spans="1:65" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68" t="str">
+        <f t="shared" ref="F29:F31" si="7">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="72"/>
+      <c r="BA29" s="72"/>
+      <c r="BB29" s="72"/>
+      <c r="BC29" s="72"/>
+      <c r="BD29" s="72"/>
+      <c r="BE29" s="72"/>
+      <c r="BF29" s="72"/>
+      <c r="BG29" s="72"/>
+      <c r="BH29" s="72"/>
+      <c r="BI29" s="72"/>
+      <c r="BJ29" s="72"/>
+      <c r="BK29" s="72"/>
+      <c r="BL29" s="72"/>
+      <c r="BM29" s="72"/>
+    </row>
+    <row r="30" spans="1:65" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="89"/>
+      <c r="E30" s="66">
+        <v>44018</v>
+      </c>
+      <c r="F30" s="67">
+        <f t="shared" si="7"/>
+        <v>44019</v>
+      </c>
+      <c r="G30" s="51">
+        <v>2</v>
+      </c>
+      <c r="H30" s="52">
         <v>1</v>
       </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-      <c r="BB29" s="73"/>
-      <c r="BC29" s="73"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="73"/>
-      <c r="BG29" s="73"/>
-      <c r="BH29" s="73"/>
-      <c r="BI29" s="73"/>
-      <c r="BJ29" s="73"/>
-      <c r="BK29" s="73"/>
-      <c r="BL29" s="73"/>
-      <c r="BM29" s="73"/>
-      <c r="BN29" s="73"/>
-    </row>
-    <row r="30" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="str">
+      <c r="I30" s="64"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="70"/>
+      <c r="AM30" s="70"/>
+      <c r="AN30" s="70"/>
+      <c r="AO30" s="70"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="70"/>
+      <c r="AR30" s="70"/>
+      <c r="AS30" s="70"/>
+      <c r="AT30" s="70"/>
+      <c r="AU30" s="70"/>
+      <c r="AV30" s="70"/>
+      <c r="AW30" s="70"/>
+      <c r="AX30" s="70"/>
+      <c r="AY30" s="70"/>
+      <c r="AZ30" s="70"/>
+      <c r="BA30" s="70"/>
+      <c r="BB30" s="70"/>
+      <c r="BC30" s="70"/>
+      <c r="BD30" s="70"/>
+      <c r="BE30" s="70"/>
+      <c r="BF30" s="70"/>
+      <c r="BG30" s="70"/>
+      <c r="BH30" s="70"/>
+      <c r="BI30" s="70"/>
+      <c r="BJ30" s="70"/>
+      <c r="BK30" s="70"/>
+      <c r="BL30" s="70"/>
+      <c r="BM30" s="70"/>
+    </row>
+    <row r="31" spans="1:65" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B30" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="69">
-        <v>43132</v>
-      </c>
-      <c r="F30" s="70">
-        <f t="shared" si="6"/>
-        <v>43132</v>
-      </c>
-      <c r="G30" s="52">
+        <v>5.2</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="89"/>
+      <c r="E31" s="66">
+        <v>44021</v>
+      </c>
+      <c r="F31" s="67">
+        <f>IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <v>44022</v>
+      </c>
+      <c r="G31" s="51">
+        <v>2</v>
+      </c>
+      <c r="H31" s="52">
         <v>1</v>
       </c>
-      <c r="H30" s="53">
-        <v>0</v>
-      </c>
-      <c r="I30" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="73"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="73"/>
-      <c r="AN30" s="73"/>
-      <c r="AO30" s="73"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="73"/>
-      <c r="AS30" s="73"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="73"/>
-      <c r="AX30" s="73"/>
-      <c r="AY30" s="73"/>
-      <c r="AZ30" s="73"/>
-      <c r="BA30" s="73"/>
-      <c r="BB30" s="73"/>
-      <c r="BC30" s="73"/>
-      <c r="BD30" s="73"/>
-      <c r="BE30" s="73"/>
-      <c r="BF30" s="73"/>
-      <c r="BG30" s="73"/>
-      <c r="BH30" s="73"/>
-      <c r="BI30" s="73"/>
-      <c r="BJ30" s="73"/>
-      <c r="BK30" s="73"/>
-      <c r="BL30" s="73"/>
-      <c r="BM30" s="73"/>
-      <c r="BN30" s="73"/>
-    </row>
-    <row r="31" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="69">
-        <v>43133</v>
-      </c>
-      <c r="F31" s="70">
-        <f t="shared" si="6"/>
-        <v>43133</v>
-      </c>
-      <c r="G31" s="52">
-        <v>1</v>
-      </c>
-      <c r="H31" s="53">
-        <v>0</v>
-      </c>
-      <c r="I31" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="73"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
-      <c r="AO31" s="73"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="73"/>
-      <c r="AS31" s="73"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="73"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="73"/>
-      <c r="BA31" s="73"/>
-      <c r="BB31" s="73"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="73"/>
-      <c r="BE31" s="73"/>
-      <c r="BF31" s="73"/>
-      <c r="BG31" s="73"/>
-      <c r="BH31" s="73"/>
-      <c r="BI31" s="73"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="73"/>
-      <c r="BL31" s="73"/>
-      <c r="BM31" s="73"/>
-      <c r="BN31" s="73"/>
-    </row>
-    <row r="32" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="I31" s="64"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="70"/>
+      <c r="AM31" s="70"/>
+      <c r="AN31" s="70"/>
+      <c r="AO31" s="70"/>
+      <c r="AP31" s="70"/>
+      <c r="AQ31" s="70"/>
+      <c r="AR31" s="70"/>
+      <c r="AS31" s="70"/>
+      <c r="AT31" s="70"/>
+      <c r="AU31" s="70"/>
+      <c r="AV31" s="70"/>
+      <c r="AW31" s="70"/>
+      <c r="AX31" s="70"/>
+      <c r="AY31" s="70"/>
+      <c r="AZ31" s="70"/>
+      <c r="BA31" s="70"/>
+      <c r="BB31" s="70"/>
+      <c r="BC31" s="70"/>
+      <c r="BD31" s="70"/>
+      <c r="BE31" s="70"/>
+      <c r="BF31" s="70"/>
+      <c r="BG31" s="70"/>
+      <c r="BH31" s="70"/>
+      <c r="BI31" s="70"/>
+      <c r="BJ31" s="70"/>
+      <c r="BK31" s="70"/>
+      <c r="BL31" s="70"/>
+      <c r="BM31" s="70"/>
+    </row>
+    <row r="32" spans="1:65" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D32" s="46"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71" t="str">
-        <f t="shared" ref="F32:F33" si="7">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68" t="str">
+        <f t="shared" ref="F32:F33" si="8">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="48"/>
-      <c r="I32" s="49" t="str">
-        <f t="shared" ref="I32:I33" si="8">IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="75"/>
-      <c r="AP32" s="75"/>
-      <c r="AQ32" s="75"/>
-      <c r="AR32" s="75"/>
-      <c r="AS32" s="75"/>
-      <c r="AT32" s="75"/>
-      <c r="AU32" s="75"/>
-      <c r="AV32" s="75"/>
-      <c r="AW32" s="75"/>
-      <c r="AX32" s="75"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="75"/>
-      <c r="BB32" s="75"/>
-      <c r="BC32" s="75"/>
-      <c r="BD32" s="75"/>
-      <c r="BE32" s="75"/>
-      <c r="BF32" s="75"/>
-      <c r="BG32" s="75"/>
-      <c r="BH32" s="75"/>
-      <c r="BI32" s="75"/>
-      <c r="BJ32" s="75"/>
-      <c r="BK32" s="75"/>
-      <c r="BL32" s="75"/>
-      <c r="BM32" s="75"/>
-      <c r="BN32" s="75"/>
-    </row>
-    <row r="33" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="str">
+      <c r="I32" s="65"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="72"/>
+      <c r="AM32" s="72"/>
+      <c r="AN32" s="72"/>
+      <c r="AO32" s="72"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="72"/>
+      <c r="BA32" s="72"/>
+      <c r="BB32" s="72"/>
+      <c r="BC32" s="72"/>
+      <c r="BD32" s="72"/>
+      <c r="BE32" s="72"/>
+      <c r="BF32" s="72"/>
+      <c r="BG32" s="72"/>
+      <c r="BH32" s="72"/>
+      <c r="BI32" s="72"/>
+      <c r="BJ32" s="72"/>
+      <c r="BK32" s="72"/>
+      <c r="BL32" s="72"/>
+      <c r="BM32" s="72"/>
+    </row>
+    <row r="33" spans="1:65" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B33" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="69">
-        <v>43129</v>
-      </c>
-      <c r="F33" s="70">
-        <f t="shared" si="7"/>
-        <v>43129</v>
-      </c>
-      <c r="G33" s="52">
+        <v>6.1</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="89"/>
+      <c r="E33" s="66">
+        <v>44025</v>
+      </c>
+      <c r="F33" s="67">
+        <f t="shared" si="8"/>
+        <v>44036</v>
+      </c>
+      <c r="G33" s="51">
+        <v>12</v>
+      </c>
+      <c r="H33" s="52">
         <v>1</v>
       </c>
-      <c r="H33" s="53">
-        <v>0</v>
-      </c>
-      <c r="I33" s="54">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="67"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="73"/>
-      <c r="BG33" s="73"/>
-      <c r="BH33" s="73"/>
-      <c r="BI33" s="73"/>
-      <c r="BJ33" s="73"/>
-      <c r="BK33" s="73"/>
-      <c r="BL33" s="73"/>
-      <c r="BM33" s="73"/>
-      <c r="BN33" s="73"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="70"/>
+      <c r="AJ33" s="70"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="70"/>
+      <c r="AM33" s="70"/>
+      <c r="AN33" s="70"/>
+      <c r="AO33" s="70"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="70"/>
+      <c r="AR33" s="70"/>
+      <c r="AS33" s="70"/>
+      <c r="AT33" s="70"/>
+      <c r="AU33" s="70"/>
+      <c r="AV33" s="70"/>
+      <c r="AW33" s="70"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="70"/>
+      <c r="AZ33" s="70"/>
+      <c r="BA33" s="70"/>
+      <c r="BB33" s="70"/>
+      <c r="BC33" s="70"/>
+      <c r="BD33" s="70"/>
+      <c r="BE33" s="70"/>
+      <c r="BF33" s="70"/>
+      <c r="BG33" s="70"/>
+      <c r="BH33" s="70"/>
+      <c r="BI33" s="70"/>
+      <c r="BJ33" s="70"/>
+      <c r="BK33" s="70"/>
+      <c r="BL33" s="70"/>
+      <c r="BM33" s="70"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="J1:AD1"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="J4:P4"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="X5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H31">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="H8:H24">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6854,25 +6231,44 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="44" priority="57">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="J6:BM7">
+    <cfRule type="expression" dxfId="6" priority="69">
+      <formula>J$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN31">
-    <cfRule type="expression" dxfId="53" priority="60">
-      <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="J8:BM33">
+    <cfRule type="expression" dxfId="5" priority="72">
+      <formula>AND($E8&lt;=J$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=J$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="61">
-      <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="4" priority="73">
+      <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=J$6,$F8&gt;=J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN31 BO6:DR7">
-    <cfRule type="expression" dxfId="51" priority="20">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="BN6:DQ7 J6:BM24">
+    <cfRule type="expression" dxfId="3" priority="32">
+      <formula>J$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H29:H31">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{960EC7F6-591F-400F-8303-AD10B00D6C64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:BM31">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>J$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6881,25 +6277,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E206EDF2-EB18-4A1F-BF48-F79B0672977B}</x14:id>
+          <x14:id>{085A2CBB-686E-42B0-AEAA-103DCEA90669}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="50" priority="7">
-      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="8">
-      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
+  <conditionalFormatting sqref="J25:BM28">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>J$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="48" priority="6">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H32:H33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6908,36 +6296,28 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ECDB93B2-81C0-4CDC-B0B7-F4FAD7A89962}</x14:id>
+          <x14:id>{4ABDDFDF-340C-4211-8AC0-3E887FFDF416}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="47" priority="3">
-      <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4">
-      <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="45" priority="2">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="J32:BM33">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>J$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K1:AE1" r:id="rId1" display="Gantt Chart Template © 2006-2018 by Vertex42.com." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J1:AD1" r:id="rId1" display="Gantt Chart Template © 2006-2018 by Vertex42.com." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 B27 B28:B30 B21:B24 B16:B18 E14 E20 E26 G14:H14 G20:H20 G26:H30 H18 H16 H17 H21:H24" unlockedFormula="1"/>
-    <ignoredError sqref="A26 A20 A14" formula="1"/>
+    <ignoredError sqref="H9 E14 E19 G14:H14 G19:H19" unlockedFormula="1"/>
+    <ignoredError sqref="A14" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -6950,16 +6330,16 @@
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>8</xdr:col>
                     <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>27</xdr:col>
+                    <xdr:col>26</xdr:col>
                     <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6985,10 +6365,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H31</xm:sqref>
+          <xm:sqref>H8:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E206EDF2-EB18-4A1F-BF48-F79B0672977B}">
+          <x14:cfRule type="dataBar" id="{960EC7F6-591F-400F-8303-AD10B00D6C64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7000,10 +6380,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>H29:H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ECDB93B2-81C0-4CDC-B0B7-F4FAD7A89962}">
+          <x14:cfRule type="dataBar" id="{085A2CBB-686E-42B0-AEAA-103DCEA90669}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7015,7 +6395,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
+          <xm:sqref>H25:H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4ABDDFDF-340C-4211-8AC0-3E887FFDF416}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32:H33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7042,14 +6437,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
-        <v>21</v>
+      <c r="A2" s="96" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -7060,483 +6455,483 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>57</v>
+      <c r="A4" s="91" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
-        <v>46</v>
+      <c r="B5" s="97" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="102" t="s">
-        <v>58</v>
+      <c r="B7" s="97" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="95" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="100" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="135"/>
+      <c r="B13" s="130"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="105"/>
-      <c r="B15" s="103" t="s">
+    <row r="15" spans="1:3" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="100"/>
+      <c r="B15" s="98" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="100"/>
+      <c r="B16" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="101"/>
+      <c r="B17" s="99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
+      <c r="B18" s="99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="100"/>
+      <c r="B20" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
+      <c r="B21" s="99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="102"/>
+      <c r="B22" s="103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="102"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="130" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="105"/>
-      <c r="B16" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="104" t="s">
+      <c r="B24" s="130"/>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="102"/>
+      <c r="B25" s="99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="102"/>
+      <c r="B26" s="99"/>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="102"/>
+      <c r="B27" s="120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="102"/>
+      <c r="B28" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="102"/>
+      <c r="B29" s="99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="102"/>
+      <c r="B30" s="99"/>
+    </row>
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="102"/>
+      <c r="B31" s="120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="102"/>
+      <c r="B32" s="99" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="104" t="s">
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="102"/>
+      <c r="B33" s="99" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="104" t="s">
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="102"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="102"/>
+      <c r="B35" s="99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="102"/>
+      <c r="B36" s="105" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="105"/>
-      <c r="B20" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="135" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="135"/>
-    </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="104" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="104"/>
-    </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
-      <c r="B27" s="125" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="104" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="104"/>
-    </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
-      <c r="B31" s="125" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="104" t="s">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="102"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="130"/>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="99" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="104" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="135"/>
-    </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="104" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="104" t="s">
-        <v>68</v>
+      <c r="B41" s="99" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:2" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="104" t="s">
-        <v>66</v>
+      <c r="B43" s="99" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="104" t="s">
-        <v>69</v>
+      <c r="B45" s="99" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" s="21"/>
     </row>
     <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="104" t="s">
-        <v>70</v>
+      <c r="B47" s="99" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="135"/>
+      <c r="B49" s="130"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="104" t="s">
-        <v>97</v>
+      <c r="B50" s="99" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="111" t="s">
+      <c r="A52" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="104" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="106" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="111" t="s">
+      <c r="B53" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="104" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="111" t="s">
+      <c r="B54" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="104" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="95"/>
+      <c r="B55" s="99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="95"/>
+      <c r="B56" s="99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="106" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="100"/>
-      <c r="B55" s="104" t="s">
+      <c r="B57" s="99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="95"/>
+      <c r="B58" s="99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="95"/>
+      <c r="B59" s="99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="95"/>
+      <c r="B61" s="99" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="100"/>
-      <c r="B56" s="104" t="s">
+    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="106" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="100"/>
-      <c r="B58" s="104" t="s">
+      <c r="B62" s="99" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="100"/>
-      <c r="B59" s="104" t="s">
+    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="107"/>
+      <c r="B63" s="99" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="100"/>
-      <c r="B61" s="104" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="112"/>
-      <c r="B63" s="104" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="135"/>
+      <c r="A65" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="130"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="104" t="s">
-        <v>79</v>
+      <c r="B66" s="99" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="135" t="s">
+      <c r="A68" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="135"/>
+      <c r="B68" s="130"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="119" t="s">
+      <c r="A69" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="120" t="s">
+      <c r="B69" s="115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="108"/>
+      <c r="B70" s="113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="108"/>
+      <c r="B71" s="109"/>
+    </row>
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="115" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="108"/>
+      <c r="B73" s="113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="108"/>
+      <c r="B74" s="109"/>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="108"/>
+      <c r="B76" s="97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="107"/>
+      <c r="B77" s="107"/>
+    </row>
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="117" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="108"/>
+      <c r="B79" s="97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="107"/>
+      <c r="B80" s="107"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="117" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="108"/>
+      <c r="B82" s="112" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="108"/>
+      <c r="B83" s="112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="108"/>
+      <c r="B84" s="112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="107"/>
+      <c r="B85" s="111"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="108"/>
+      <c r="B87" s="97" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="108"/>
+      <c r="B88" s="110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A89" s="108"/>
+      <c r="B89" s="116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="113"/>
-      <c r="B70" s="118" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="113"/>
-      <c r="B71" s="114"/>
-    </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="119" t="s">
+    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="107"/>
+      <c r="B90" s="107"/>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="120" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="113"/>
-      <c r="B73" s="118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="113"/>
-      <c r="B74" s="114"/>
-    </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="122" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="113"/>
-      <c r="B76" s="102" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="112"/>
-      <c r="B77" s="112"/>
-    </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="122" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="113"/>
-      <c r="B79" s="102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="112"/>
-      <c r="B80" s="112"/>
-    </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="122" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="113"/>
-      <c r="B82" s="117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="113"/>
-      <c r="B83" s="117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="113"/>
-      <c r="B84" s="117" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="112"/>
-      <c r="B85" s="116"/>
-    </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="122" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="113"/>
-      <c r="B87" s="102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="113"/>
-      <c r="B88" s="115" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A89" s="113"/>
-      <c r="B89" s="121" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="112"/>
-      <c r="B90" s="112"/>
-    </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="124" t="s">
-        <v>94</v>
+      <c r="B91" s="119" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="100"/>
-      <c r="B92" s="117" t="s">
-        <v>20</v>
+      <c r="A92" s="95"/>
+      <c r="B92" s="112" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +6974,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="35"/>
@@ -7594,14 +6989,14 @@
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -7613,7 +7008,7 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -7625,7 +7020,7 @@
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="15"/>
     </row>
@@ -7637,7 +7032,7 @@
     <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -7649,7 +7044,7 @@
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -7661,7 +7056,7 @@
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -7673,7 +7068,7 @@
     <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -7685,14 +7080,14 @@
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="15"/>
     </row>
